--- a/tests/7月/匯恩_銷售報表07.03.xlsx
+++ b/tests/7月/匯恩_銷售報表07.03.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.11.201\共用\06 每週週報\7月\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tsung-han/PycharmProjects/robot_is_comming/tests/7月/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE4A662-7284-4FE0-AE61-042078EAD2B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF1C0A6-4FBB-874E-A22D-CD8148116D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="240" windowWidth="12630" windowHeight="15060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="540" yWindow="500" windowWidth="12640" windowHeight="15060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="銷售報表" sheetId="9" r:id="rId1"/>
@@ -174,12 +174,12 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>07/08~08/04：【天香樓-天香熟成麻辣醬】店促$249元</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>06/24~07/07：【香港鴻福堂凍檸茶風味飲品】單瓶$20元
-06/24~07/07：【天香樓-天香熟成麻辣醬】店促$249元</t>
+    <t xml:space="preserve">06/24~07/07：【香港鴻福堂凍檸茶風味飲品】單瓶$20元
+06/24~07/07：【天香樓-天香熟成麻辣醬】店促$249元	</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">07/08~08/04：【天香樓-天香熟成麻辣醬】店促$249元																														</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -201,10 +201,12 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -355,14 +357,14 @@
       <charset val="136"/>
     </font>
     <font>
-      <sz val="22"/>
-      <color theme="1"/>
+      <sz val="20"/>
       <name val="微軟正黑體"/>
       <family val="2"/>
       <charset val="136"/>
     </font>
     <font>
-      <sz val="18"/>
+      <sz val="22"/>
+      <color theme="2" tint="-0.89999084444715716"/>
       <name val="微軟正黑體"/>
       <family val="2"/>
       <charset val="136"/>
@@ -448,7 +450,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -899,57 +901,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -959,7 +910,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1089,6 +1040,69 @@
     <xf numFmtId="176" fontId="19" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1116,116 +1130,26 @@
     <xf numFmtId="178" fontId="4" fillId="8" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1579,28 +1503,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS26"/>
+  <dimension ref="A1:AS25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="2" ySplit="11" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="10" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="I31" sqref="I31"/>
+      <selection pane="bottomRight" activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="29.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.625" style="5" customWidth="1"/>
-    <col min="3" max="16" width="10.625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="10.625" style="3" customWidth="1"/>
-    <col min="18" max="23" width="10.625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="10.625" style="3" customWidth="1"/>
-    <col min="25" max="44" width="10.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="5" customWidth="1"/>
+    <col min="3" max="16" width="10.6640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.6640625" style="3" customWidth="1"/>
+    <col min="18" max="23" width="10.6640625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="10.6640625" style="3" customWidth="1"/>
+    <col min="25" max="44" width="10.6640625" style="1" customWidth="1"/>
     <col min="45" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="18.75">
+    <row r="1" spans="1:45" ht="21">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1616,1212 +1540,1166 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:45" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="A4" s="61" t="s">
+    <row r="4" spans="1:45" ht="40" customHeight="1" thickBot="1">
+      <c r="A4" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="71" t="s">
+      <c r="B4" s="44"/>
+      <c r="C4" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="71" t="s">
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="O4" s="72"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="72"/>
-      <c r="S4" s="72"/>
-      <c r="T4" s="72"/>
-      <c r="U4" s="72"/>
-      <c r="V4" s="72"/>
-      <c r="W4" s="72"/>
-      <c r="X4" s="72"/>
-      <c r="Y4" s="72"/>
-      <c r="Z4" s="72"/>
-      <c r="AA4" s="73"/>
-      <c r="AB4" s="74" t="s">
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53"/>
+      <c r="Z4" s="53"/>
+      <c r="AA4" s="54"/>
+      <c r="AB4" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="AC4" s="75"/>
-      <c r="AD4" s="75"/>
-      <c r="AE4" s="75"/>
-      <c r="AF4" s="75"/>
-      <c r="AG4" s="75"/>
-      <c r="AH4" s="75"/>
-      <c r="AI4" s="75"/>
-      <c r="AJ4" s="75"/>
-      <c r="AK4" s="75"/>
-      <c r="AL4" s="75"/>
-      <c r="AM4" s="75"/>
-      <c r="AN4" s="75"/>
-      <c r="AO4" s="75"/>
-      <c r="AP4" s="75"/>
-      <c r="AQ4" s="75"/>
-      <c r="AR4" s="76"/>
+      <c r="AC4" s="56"/>
+      <c r="AD4" s="56"/>
+      <c r="AE4" s="56"/>
+      <c r="AF4" s="56"/>
+      <c r="AG4" s="56"/>
+      <c r="AH4" s="56"/>
+      <c r="AI4" s="56"/>
+      <c r="AJ4" s="56"/>
+      <c r="AK4" s="56"/>
+      <c r="AL4" s="56"/>
+      <c r="AM4" s="56"/>
+      <c r="AN4" s="56"/>
+      <c r="AO4" s="56"/>
+      <c r="AP4" s="56"/>
+      <c r="AQ4" s="56"/>
+      <c r="AR4" s="57"/>
     </row>
-    <row r="5" spans="1:45" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="A5" s="63" t="s">
+    <row r="5" spans="1:45" ht="40" customHeight="1" thickBot="1">
+      <c r="A5" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="77" t="s">
+      <c r="B5" s="45"/>
+      <c r="C5" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="78"/>
-      <c r="L5" s="78"/>
-      <c r="M5" s="79"/>
-      <c r="N5" s="77" t="s">
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="78"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="78"/>
-      <c r="T5" s="78"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
-      <c r="W5" s="78"/>
-      <c r="X5" s="78"/>
-      <c r="Y5" s="78"/>
-      <c r="Z5" s="78"/>
-      <c r="AA5" s="78"/>
-      <c r="AB5" s="80" t="s">
+      <c r="O5" s="59"/>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="59"/>
+      <c r="T5" s="59"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="59"/>
+      <c r="W5" s="59"/>
+      <c r="X5" s="59"/>
+      <c r="Y5" s="59"/>
+      <c r="Z5" s="59"/>
+      <c r="AA5" s="59"/>
+      <c r="AB5" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="AC5" s="81"/>
-      <c r="AD5" s="81"/>
-      <c r="AE5" s="81"/>
-      <c r="AF5" s="81"/>
-      <c r="AG5" s="81"/>
-      <c r="AH5" s="81"/>
-      <c r="AI5" s="81"/>
-      <c r="AJ5" s="81"/>
-      <c r="AK5" s="81"/>
-      <c r="AL5" s="81"/>
-      <c r="AM5" s="81"/>
-      <c r="AN5" s="81"/>
-      <c r="AO5" s="81"/>
-      <c r="AP5" s="81"/>
-      <c r="AQ5" s="81"/>
-      <c r="AR5" s="82"/>
+      <c r="AC5" s="62"/>
+      <c r="AD5" s="62"/>
+      <c r="AE5" s="62"/>
+      <c r="AF5" s="62"/>
+      <c r="AG5" s="62"/>
+      <c r="AH5" s="62"/>
+      <c r="AI5" s="62"/>
+      <c r="AJ5" s="62"/>
+      <c r="AK5" s="62"/>
+      <c r="AL5" s="62"/>
+      <c r="AM5" s="62"/>
+      <c r="AN5" s="62"/>
+      <c r="AO5" s="62"/>
+      <c r="AP5" s="62"/>
+      <c r="AQ5" s="62"/>
+      <c r="AR5" s="63"/>
     </row>
-    <row r="6" spans="1:45" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="A6" s="66" t="s">
+    <row r="6" spans="1:45" ht="40" customHeight="1" thickBot="1">
+      <c r="A6" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="66"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="53"/>
-      <c r="S6" s="53"/>
-      <c r="T6" s="53"/>
-      <c r="U6" s="53"/>
-      <c r="V6" s="53"/>
-      <c r="W6" s="53"/>
-      <c r="X6" s="53"/>
-      <c r="Y6" s="53"/>
-      <c r="Z6" s="53"/>
-      <c r="AA6" s="53"/>
-      <c r="AB6" s="53"/>
-      <c r="AC6" s="53"/>
-      <c r="AD6" s="53"/>
-      <c r="AE6" s="53"/>
-      <c r="AF6" s="53"/>
-      <c r="AG6" s="53"/>
-      <c r="AH6" s="53"/>
-      <c r="AI6" s="53"/>
-      <c r="AJ6" s="53"/>
-      <c r="AK6" s="53"/>
-      <c r="AL6" s="53"/>
-      <c r="AM6" s="53"/>
-      <c r="AN6" s="53"/>
-      <c r="AO6" s="53"/>
-      <c r="AP6" s="53"/>
-      <c r="AQ6" s="53"/>
-      <c r="AR6" s="54"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="47"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="47"/>
+      <c r="U6" s="47"/>
+      <c r="V6" s="47"/>
+      <c r="W6" s="47"/>
+      <c r="X6" s="47"/>
+      <c r="Y6" s="47"/>
+      <c r="Z6" s="47"/>
+      <c r="AA6" s="47"/>
+      <c r="AB6" s="47"/>
+      <c r="AC6" s="47"/>
+      <c r="AD6" s="47"/>
+      <c r="AE6" s="47"/>
+      <c r="AF6" s="47"/>
+      <c r="AG6" s="47"/>
+      <c r="AH6" s="47"/>
+      <c r="AI6" s="47"/>
+      <c r="AJ6" s="47"/>
+      <c r="AK6" s="47"/>
+      <c r="AL6" s="47"/>
+      <c r="AM6" s="47"/>
+      <c r="AN6" s="47"/>
+      <c r="AO6" s="47"/>
+      <c r="AP6" s="47"/>
+      <c r="AQ6" s="47"/>
+      <c r="AR6" s="48"/>
     </row>
-    <row r="7" spans="1:45" ht="39.950000000000003" customHeight="1">
-      <c r="A7" s="67" t="s">
+    <row r="7" spans="1:45" ht="70" customHeight="1" thickBot="1">
+      <c r="A7" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="55" t="s">
+      <c r="B7" s="44"/>
+      <c r="C7" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="75"/>
+      <c r="N7" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="83" t="s">
+      <c r="O7" s="77"/>
+      <c r="P7" s="77"/>
+      <c r="Q7" s="77"/>
+      <c r="R7" s="77"/>
+      <c r="S7" s="77"/>
+      <c r="T7" s="77"/>
+      <c r="U7" s="77"/>
+      <c r="V7" s="78"/>
+      <c r="W7" s="78"/>
+      <c r="X7" s="78"/>
+      <c r="Y7" s="78"/>
+      <c r="Z7" s="78"/>
+      <c r="AA7" s="78"/>
+      <c r="AB7" s="78"/>
+      <c r="AC7" s="78"/>
+      <c r="AD7" s="78"/>
+      <c r="AE7" s="78"/>
+      <c r="AF7" s="78"/>
+      <c r="AG7" s="78"/>
+      <c r="AH7" s="78"/>
+      <c r="AI7" s="78"/>
+      <c r="AJ7" s="78"/>
+      <c r="AK7" s="78"/>
+      <c r="AL7" s="78"/>
+      <c r="AM7" s="78"/>
+      <c r="AN7" s="78"/>
+      <c r="AO7" s="78"/>
+      <c r="AP7" s="78"/>
+      <c r="AQ7" s="78"/>
+      <c r="AR7" s="79"/>
+    </row>
+    <row r="8" spans="1:45" s="6" customFormat="1" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A8" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="50"/>
+      <c r="C8" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="R8" s="47"/>
+      <c r="S8" s="47"/>
+      <c r="T8" s="47"/>
+      <c r="U8" s="47"/>
+      <c r="V8" s="47"/>
+      <c r="W8" s="48"/>
+      <c r="X8" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y8" s="47"/>
+      <c r="Z8" s="47"/>
+      <c r="AA8" s="47"/>
+      <c r="AB8" s="47"/>
+      <c r="AC8" s="47"/>
+      <c r="AD8" s="48"/>
+      <c r="AE8" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF8" s="47"/>
+      <c r="AG8" s="47"/>
+      <c r="AH8" s="47"/>
+      <c r="AI8" s="47"/>
+      <c r="AJ8" s="47"/>
+      <c r="AK8" s="48"/>
+      <c r="AL8" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM8" s="47"/>
+      <c r="AN8" s="47"/>
+      <c r="AO8" s="47"/>
+      <c r="AP8" s="47"/>
+      <c r="AQ8" s="47"/>
+      <c r="AR8" s="48"/>
+    </row>
+    <row r="9" spans="1:45" s="7" customFormat="1" ht="17" customHeight="1" thickBot="1">
+      <c r="A9" s="49"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="31">
+        <v>44739</v>
+      </c>
+      <c r="D9" s="31">
+        <v>44740</v>
+      </c>
+      <c r="E9" s="31">
+        <v>44741</v>
+      </c>
+      <c r="F9" s="31">
+        <v>44742</v>
+      </c>
+      <c r="G9" s="31">
+        <v>44743</v>
+      </c>
+      <c r="H9" s="31">
+        <v>44744</v>
+      </c>
+      <c r="I9" s="31">
+        <v>44745</v>
+      </c>
+      <c r="J9" s="42">
+        <v>44746</v>
+      </c>
+      <c r="K9" s="31">
+        <v>44747</v>
+      </c>
+      <c r="L9" s="31">
+        <v>44748</v>
+      </c>
+      <c r="M9" s="31">
+        <v>44749</v>
+      </c>
+      <c r="N9" s="31">
+        <v>44750</v>
+      </c>
+      <c r="O9" s="31">
+        <v>44751</v>
+      </c>
+      <c r="P9" s="31">
+        <v>44752</v>
+      </c>
+      <c r="Q9" s="31">
+        <v>44753</v>
+      </c>
+      <c r="R9" s="31">
+        <v>44754</v>
+      </c>
+      <c r="S9" s="31">
+        <v>44755</v>
+      </c>
+      <c r="T9" s="31">
+        <v>44756</v>
+      </c>
+      <c r="U9" s="31">
+        <v>44757</v>
+      </c>
+      <c r="V9" s="31">
+        <v>44758</v>
+      </c>
+      <c r="W9" s="31">
+        <v>44759</v>
+      </c>
+      <c r="X9" s="31">
+        <v>44760</v>
+      </c>
+      <c r="Y9" s="31">
+        <v>44761</v>
+      </c>
+      <c r="Z9" s="31">
+        <v>44762</v>
+      </c>
+      <c r="AA9" s="31">
+        <v>44763</v>
+      </c>
+      <c r="AB9" s="31">
+        <v>44764</v>
+      </c>
+      <c r="AC9" s="31">
+        <v>44765</v>
+      </c>
+      <c r="AD9" s="31">
+        <v>44766</v>
+      </c>
+      <c r="AE9" s="31">
+        <v>44767</v>
+      </c>
+      <c r="AF9" s="31">
+        <v>44768</v>
+      </c>
+      <c r="AG9" s="31">
+        <v>44769</v>
+      </c>
+      <c r="AH9" s="31">
+        <v>44770</v>
+      </c>
+      <c r="AI9" s="31">
+        <v>44771</v>
+      </c>
+      <c r="AJ9" s="31">
+        <v>44772</v>
+      </c>
+      <c r="AK9" s="31">
+        <v>44773</v>
+      </c>
+      <c r="AL9" s="31">
+        <v>44774</v>
+      </c>
+      <c r="AM9" s="31">
+        <v>44775</v>
+      </c>
+      <c r="AN9" s="31">
+        <v>44776</v>
+      </c>
+      <c r="AO9" s="31">
+        <v>44777</v>
+      </c>
+      <c r="AP9" s="31">
+        <v>44778</v>
+      </c>
+      <c r="AQ9" s="31">
+        <v>44779</v>
+      </c>
+      <c r="AR9" s="31">
+        <v>44780</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45" s="5" customFormat="1" ht="17" customHeight="1" thickBot="1">
+      <c r="A10" s="49"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="K10" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="O10" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="P10" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="R10" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="S10" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="T10" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="U10" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="V10" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="W10" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="X10" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y10" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z10" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA10" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB10" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC10" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD10" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF10" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG10" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH10" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI10" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ10" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK10" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL10" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM10" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN10" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO10" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP10" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ10" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR10" s="30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45" ht="30" customHeight="1">
+      <c r="A11" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="20">
+        <v>3</v>
+      </c>
+      <c r="H11" s="20">
+        <v>4</v>
+      </c>
+      <c r="I11" s="21">
+        <v>2</v>
+      </c>
+      <c r="J11" s="19"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="20"/>
+      <c r="Z11" s="20"/>
+      <c r="AA11" s="21"/>
+      <c r="AB11" s="20"/>
+      <c r="AC11" s="20"/>
+      <c r="AD11" s="22"/>
+      <c r="AE11" s="19"/>
+      <c r="AF11" s="20"/>
+      <c r="AG11" s="20"/>
+      <c r="AH11" s="20"/>
+      <c r="AI11" s="20"/>
+      <c r="AJ11" s="20"/>
+      <c r="AK11" s="21"/>
+      <c r="AL11" s="19"/>
+      <c r="AM11" s="20"/>
+      <c r="AN11" s="20"/>
+      <c r="AO11" s="20"/>
+      <c r="AP11" s="25"/>
+      <c r="AQ11" s="25"/>
+      <c r="AR11" s="25"/>
+      <c r="AS11" s="37"/>
+    </row>
+    <row r="12" spans="1:45" ht="18" customHeight="1">
+      <c r="A12" s="69"/>
+      <c r="B12" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="24"/>
+      <c r="J12" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="M12" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="N12" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="O12" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="S12" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="T12" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="U12" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="V12" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="W12" s="24"/>
+      <c r="X12" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y12" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z12" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA12" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC12" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD12" s="24"/>
+      <c r="AE12" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF12" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG12" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH12" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI12" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ12" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK12" s="24"/>
+      <c r="AL12" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM12" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN12" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="AO12" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP12" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ12" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR12" s="24"/>
+    </row>
+    <row r="13" spans="1:45" ht="30" customHeight="1" thickBot="1">
+      <c r="A13" s="69"/>
+      <c r="B13" s="71">
+        <v>305</v>
+      </c>
+      <c r="C13" s="12">
+        <f>SUM(C11:I11)</f>
+        <v>9</v>
+      </c>
+      <c r="D13" s="10">
+        <v>2865</v>
+      </c>
+      <c r="E13" s="18">
         <v>36</v>
       </c>
-      <c r="O7" s="84"/>
-      <c r="P7" s="84"/>
-      <c r="Q7" s="84"/>
-      <c r="R7" s="84"/>
-      <c r="S7" s="84"/>
-      <c r="T7" s="84"/>
-      <c r="U7" s="84"/>
-      <c r="V7" s="84"/>
-      <c r="W7" s="84"/>
-      <c r="X7" s="84"/>
-      <c r="Y7" s="84"/>
-      <c r="Z7" s="84"/>
-      <c r="AA7" s="84"/>
-      <c r="AB7" s="84"/>
-      <c r="AC7" s="84"/>
-      <c r="AD7" s="84"/>
-      <c r="AE7" s="84"/>
-      <c r="AF7" s="84"/>
-      <c r="AG7" s="84"/>
-      <c r="AH7" s="84"/>
-      <c r="AI7" s="84"/>
-      <c r="AJ7" s="84"/>
-      <c r="AK7" s="84"/>
-      <c r="AL7" s="84"/>
-      <c r="AM7" s="84"/>
-      <c r="AN7" s="84"/>
-      <c r="AO7" s="84"/>
-      <c r="AP7" s="84"/>
-      <c r="AQ7" s="84"/>
-      <c r="AR7" s="85"/>
+      <c r="F13" s="10">
+        <v>0</v>
+      </c>
+      <c r="G13" s="18">
+        <v>9</v>
+      </c>
+      <c r="H13" s="10">
+        <v>2889</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="J13" s="15">
+        <f>SUM(J11:P11)</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="10"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="12">
+        <f>SUM(Q11:W11)</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="15">
+        <f>SUM(X11:AD11)</f>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="34"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="11"/>
+      <c r="AE13" s="12">
+        <f>SUM(AE11:AK11)</f>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="10"/>
+      <c r="AG13" s="18"/>
+      <c r="AH13" s="10"/>
+      <c r="AI13" s="18"/>
+      <c r="AJ13" s="10"/>
+      <c r="AK13" s="11"/>
+      <c r="AL13" s="15">
+        <f>SUM(AL11:AR11)</f>
+        <v>0</v>
+      </c>
+      <c r="AM13" s="10"/>
+      <c r="AN13" s="18"/>
+      <c r="AO13" s="10"/>
+      <c r="AP13" s="18"/>
+      <c r="AQ13" s="10"/>
+      <c r="AR13" s="11"/>
     </row>
-    <row r="8" spans="1:45" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="A8" s="69"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="86"/>
-      <c r="O8" s="87"/>
-      <c r="P8" s="87"/>
-      <c r="Q8" s="87"/>
-      <c r="R8" s="87"/>
-      <c r="S8" s="87"/>
-      <c r="T8" s="87"/>
-      <c r="U8" s="87"/>
-      <c r="V8" s="87"/>
-      <c r="W8" s="87"/>
-      <c r="X8" s="87"/>
-      <c r="Y8" s="87"/>
-      <c r="Z8" s="87"/>
-      <c r="AA8" s="87"/>
-      <c r="AB8" s="87"/>
-      <c r="AC8" s="87"/>
-      <c r="AD8" s="87"/>
-      <c r="AE8" s="87"/>
-      <c r="AF8" s="87"/>
-      <c r="AG8" s="87"/>
-      <c r="AH8" s="87"/>
-      <c r="AI8" s="87"/>
-      <c r="AJ8" s="87"/>
-      <c r="AK8" s="87"/>
-      <c r="AL8" s="87"/>
-      <c r="AM8" s="87"/>
-      <c r="AN8" s="87"/>
-      <c r="AO8" s="87"/>
-      <c r="AP8" s="87"/>
-      <c r="AQ8" s="87"/>
-      <c r="AR8" s="88"/>
+    <row r="14" spans="1:45" ht="6" customHeight="1" thickBot="1">
+      <c r="A14" s="70"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="35"/>
+      <c r="T14" s="35"/>
+      <c r="U14" s="35"/>
+      <c r="V14" s="35"/>
+      <c r="W14" s="35"/>
+      <c r="X14" s="35"/>
+      <c r="Y14" s="35"/>
+      <c r="Z14" s="35"/>
+      <c r="AA14" s="35"/>
+      <c r="AB14" s="35"/>
+      <c r="AC14" s="35"/>
+      <c r="AD14" s="35"/>
+      <c r="AE14" s="35"/>
+      <c r="AF14" s="35"/>
+      <c r="AG14" s="35"/>
+      <c r="AH14" s="35"/>
+      <c r="AI14" s="35"/>
+      <c r="AJ14" s="35"/>
+      <c r="AK14" s="36"/>
+      <c r="AL14" s="35"/>
+      <c r="AM14" s="35"/>
+      <c r="AN14" s="35"/>
+      <c r="AO14" s="35"/>
+      <c r="AP14" s="35"/>
+      <c r="AQ14" s="35"/>
+      <c r="AR14" s="41"/>
     </row>
-    <row r="9" spans="1:45" s="6" customFormat="1" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A9" s="64" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="R9" s="53"/>
-      <c r="S9" s="53"/>
-      <c r="T9" s="53"/>
-      <c r="U9" s="53"/>
-      <c r="V9" s="53"/>
-      <c r="W9" s="54"/>
-      <c r="X9" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y9" s="53"/>
-      <c r="Z9" s="53"/>
-      <c r="AA9" s="53"/>
-      <c r="AB9" s="53"/>
-      <c r="AC9" s="53"/>
-      <c r="AD9" s="54"/>
-      <c r="AE9" s="52" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF9" s="53"/>
-      <c r="AG9" s="53"/>
-      <c r="AH9" s="53"/>
-      <c r="AI9" s="53"/>
-      <c r="AJ9" s="53"/>
-      <c r="AK9" s="54"/>
-      <c r="AL9" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="AM9" s="53"/>
-      <c r="AN9" s="53"/>
-      <c r="AO9" s="53"/>
-      <c r="AP9" s="53"/>
-      <c r="AQ9" s="53"/>
-      <c r="AR9" s="54"/>
+    <row r="15" spans="1:45" ht="30" customHeight="1">
+      <c r="A15" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="20">
+        <v>9</v>
+      </c>
+      <c r="H15" s="20">
+        <v>6</v>
+      </c>
+      <c r="I15" s="21">
+        <v>10</v>
+      </c>
+      <c r="J15" s="19"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="20"/>
+      <c r="W15" s="21"/>
+      <c r="X15" s="19"/>
+      <c r="Y15" s="20"/>
+      <c r="Z15" s="20"/>
+      <c r="AA15" s="21"/>
+      <c r="AB15" s="20"/>
+      <c r="AC15" s="20"/>
+      <c r="AD15" s="22"/>
+      <c r="AE15" s="19"/>
+      <c r="AF15" s="20"/>
+      <c r="AG15" s="20"/>
+      <c r="AH15" s="20"/>
+      <c r="AI15" s="20"/>
+      <c r="AJ15" s="20"/>
+      <c r="AK15" s="21"/>
+      <c r="AL15" s="19"/>
+      <c r="AM15" s="20"/>
+      <c r="AN15" s="20"/>
+      <c r="AO15" s="20"/>
+      <c r="AP15" s="25"/>
+      <c r="AQ15" s="25"/>
+      <c r="AR15" s="25"/>
+      <c r="AS15" s="37"/>
     </row>
-    <row r="10" spans="1:45" s="7" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A10" s="64"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="31">
-        <v>44739</v>
-      </c>
-      <c r="D10" s="31">
-        <v>44740</v>
-      </c>
-      <c r="E10" s="31">
-        <v>44741</v>
-      </c>
-      <c r="F10" s="31">
-        <v>44742</v>
-      </c>
-      <c r="G10" s="31">
-        <v>44743</v>
-      </c>
-      <c r="H10" s="31">
-        <v>44744</v>
-      </c>
-      <c r="I10" s="31">
-        <v>44745</v>
-      </c>
-      <c r="J10" s="42">
-        <v>44746</v>
-      </c>
-      <c r="K10" s="31">
-        <v>44747</v>
-      </c>
-      <c r="L10" s="31">
-        <v>44748</v>
-      </c>
-      <c r="M10" s="31">
-        <v>44749</v>
-      </c>
-      <c r="N10" s="31">
-        <v>44750</v>
-      </c>
-      <c r="O10" s="31">
-        <v>44751</v>
-      </c>
-      <c r="P10" s="31">
-        <v>44752</v>
-      </c>
-      <c r="Q10" s="31">
-        <v>44753</v>
-      </c>
-      <c r="R10" s="31">
-        <v>44754</v>
-      </c>
-      <c r="S10" s="31">
-        <v>44755</v>
-      </c>
-      <c r="T10" s="31">
-        <v>44756</v>
-      </c>
-      <c r="U10" s="31">
-        <v>44757</v>
-      </c>
-      <c r="V10" s="31">
-        <v>44758</v>
-      </c>
-      <c r="W10" s="31">
-        <v>44759</v>
-      </c>
-      <c r="X10" s="31">
-        <v>44760</v>
-      </c>
-      <c r="Y10" s="31">
-        <v>44761</v>
-      </c>
-      <c r="Z10" s="31">
-        <v>44762</v>
-      </c>
-      <c r="AA10" s="31">
-        <v>44763</v>
-      </c>
-      <c r="AB10" s="31">
-        <v>44764</v>
-      </c>
-      <c r="AC10" s="31">
-        <v>44765</v>
-      </c>
-      <c r="AD10" s="31">
-        <v>44766</v>
-      </c>
-      <c r="AE10" s="31">
-        <v>44767</v>
-      </c>
-      <c r="AF10" s="31">
-        <v>44768</v>
-      </c>
-      <c r="AG10" s="31">
-        <v>44769</v>
-      </c>
-      <c r="AH10" s="31">
-        <v>44770</v>
-      </c>
-      <c r="AI10" s="31">
-        <v>44771</v>
-      </c>
-      <c r="AJ10" s="31">
-        <v>44772</v>
-      </c>
-      <c r="AK10" s="31">
-        <v>44773</v>
-      </c>
-      <c r="AL10" s="31">
-        <v>44774</v>
-      </c>
-      <c r="AM10" s="31">
-        <v>44775</v>
-      </c>
-      <c r="AN10" s="31">
-        <v>44776</v>
-      </c>
-      <c r="AO10" s="31">
-        <v>44777</v>
-      </c>
-      <c r="AP10" s="31">
-        <v>44778</v>
-      </c>
-      <c r="AQ10" s="31">
-        <v>44779</v>
-      </c>
-      <c r="AR10" s="31">
-        <v>44780</v>
-      </c>
+    <row r="16" spans="1:45" ht="18" customHeight="1" thickBot="1">
+      <c r="A16" s="64"/>
+      <c r="B16" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" s="24"/>
+      <c r="J16" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="K16" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="N16" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="O16" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="R16" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="S16" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="T16" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="U16" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="V16" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="W16" s="24"/>
+      <c r="X16" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y16" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z16" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA16" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC16" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD16" s="24"/>
+      <c r="AE16" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF16" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG16" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH16" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI16" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ16" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK16" s="24"/>
+      <c r="AL16" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM16" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN16" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="AO16" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP16" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ16" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR16" s="24"/>
     </row>
-    <row r="11" spans="1:45" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A11" s="64"/>
-      <c r="B11" s="65"/>
-      <c r="C11" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="J11" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="K11" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="L11" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="M11" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="N11" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="O11" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="P11" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="R11" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="S11" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="T11" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="U11" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="V11" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="W11" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="X11" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y11" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z11" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA11" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB11" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC11" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD11" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE11" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF11" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG11" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="AH11" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI11" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="AJ11" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="AK11" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="AL11" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="AM11" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="AN11" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="AO11" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="AP11" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="AQ11" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="AR11" s="30" t="s">
-        <v>1</v>
-      </c>
+    <row r="17" spans="1:44" ht="30" customHeight="1" thickBot="1">
+      <c r="A17" s="64"/>
+      <c r="B17" s="66">
+        <v>32</v>
+      </c>
+      <c r="C17" s="12">
+        <f>SUM(C15:I15)</f>
+        <v>25</v>
+      </c>
+      <c r="D17" s="10">
+        <v>641</v>
+      </c>
+      <c r="E17" s="18">
+        <v>0</v>
+      </c>
+      <c r="F17" s="10">
+        <v>54</v>
+      </c>
+      <c r="G17" s="18">
+        <v>25</v>
+      </c>
+      <c r="H17" s="10">
+        <v>556</v>
+      </c>
+      <c r="I17" s="11"/>
+      <c r="J17" s="15">
+        <f>SUM(J15:P15)</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="10"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="12">
+        <f>SUM(Q15:W15)</f>
+        <v>0</v>
+      </c>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="15">
+        <f>SUM(X15:AD15)</f>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="34"/>
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="11"/>
+      <c r="AE17" s="12">
+        <f>SUM(AE15:AK15)</f>
+        <v>0</v>
+      </c>
+      <c r="AF17" s="10"/>
+      <c r="AG17" s="18"/>
+      <c r="AH17" s="10"/>
+      <c r="AI17" s="18"/>
+      <c r="AJ17" s="10"/>
+      <c r="AK17" s="11"/>
+      <c r="AL17" s="15">
+        <f>SUM(AL15:AR15)</f>
+        <v>0</v>
+      </c>
+      <c r="AM17" s="10"/>
+      <c r="AN17" s="18"/>
+      <c r="AO17" s="10"/>
+      <c r="AP17" s="18"/>
+      <c r="AQ17" s="10"/>
+      <c r="AR17" s="11"/>
     </row>
-    <row r="12" spans="1:45" ht="30" customHeight="1">
-      <c r="A12" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="20">
-        <v>3</v>
-      </c>
-      <c r="H12" s="20">
-        <v>4</v>
-      </c>
-      <c r="I12" s="21">
-        <v>2</v>
-      </c>
-      <c r="J12" s="19"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="20"/>
-      <c r="W12" s="21"/>
-      <c r="X12" s="19"/>
-      <c r="Y12" s="20"/>
-      <c r="Z12" s="20"/>
-      <c r="AA12" s="21"/>
-      <c r="AB12" s="20"/>
-      <c r="AC12" s="20"/>
-      <c r="AD12" s="22"/>
-      <c r="AE12" s="19"/>
-      <c r="AF12" s="20"/>
-      <c r="AG12" s="20"/>
-      <c r="AH12" s="20"/>
-      <c r="AI12" s="20"/>
-      <c r="AJ12" s="20"/>
-      <c r="AK12" s="21"/>
-      <c r="AL12" s="19"/>
-      <c r="AM12" s="20"/>
-      <c r="AN12" s="20"/>
-      <c r="AO12" s="20"/>
-      <c r="AP12" s="25"/>
-      <c r="AQ12" s="25"/>
-      <c r="AR12" s="25"/>
-      <c r="AS12" s="37"/>
+    <row r="18" spans="1:44" ht="6" customHeight="1" thickBot="1">
+      <c r="A18" s="65"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="35"/>
+      <c r="V18" s="35"/>
+      <c r="W18" s="35"/>
+      <c r="X18" s="35"/>
+      <c r="Y18" s="35"/>
+      <c r="Z18" s="35"/>
+      <c r="AA18" s="35"/>
+      <c r="AB18" s="35"/>
+      <c r="AC18" s="35"/>
+      <c r="AD18" s="35"/>
+      <c r="AE18" s="35"/>
+      <c r="AF18" s="35"/>
+      <c r="AG18" s="35"/>
+      <c r="AH18" s="35"/>
+      <c r="AI18" s="35"/>
+      <c r="AJ18" s="35"/>
+      <c r="AK18" s="36"/>
+      <c r="AL18" s="35"/>
+      <c r="AM18" s="35"/>
+      <c r="AN18" s="35"/>
+      <c r="AO18" s="35"/>
+      <c r="AP18" s="35"/>
+      <c r="AQ18" s="35"/>
+      <c r="AR18" s="41"/>
     </row>
-    <row r="13" spans="1:45" ht="18" customHeight="1">
-      <c r="A13" s="48"/>
-      <c r="B13" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="I13" s="24"/>
-      <c r="J13" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="K13" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="M13" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="N13" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="O13" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="R13" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="S13" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="T13" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="U13" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="V13" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="W13" s="24"/>
-      <c r="X13" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y13" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z13" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA13" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB13" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC13" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD13" s="24"/>
-      <c r="AE13" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF13" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG13" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH13" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="AI13" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="AJ13" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK13" s="24"/>
-      <c r="AL13" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="AM13" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN13" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="AO13" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="AP13" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="AQ13" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="AR13" s="24"/>
+    <row r="20" spans="1:44" ht="36" thickBot="1">
+      <c r="C20" s="13" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="14" spans="1:45" ht="30" customHeight="1" thickBot="1">
-      <c r="A14" s="48"/>
-      <c r="B14" s="50">
-        <v>305</v>
-      </c>
-      <c r="C14" s="12">
-        <f>SUM(C12:I12)</f>
-        <v>9</v>
-      </c>
-      <c r="D14" s="10">
-        <v>2865</v>
-      </c>
-      <c r="E14" s="18">
-        <v>36</v>
-      </c>
-      <c r="F14" s="10">
-        <v>0</v>
-      </c>
-      <c r="G14" s="18">
-        <v>9</v>
-      </c>
-      <c r="H14" s="10">
-        <v>2889</v>
-      </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="15">
-        <f>SUM(J12:P12)</f>
-        <v>0</v>
-      </c>
-      <c r="K14" s="10"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="12">
-        <f>SUM(Q12:W12)</f>
-        <v>0</v>
-      </c>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="11"/>
-      <c r="X14" s="15">
-        <f>SUM(X12:AD12)</f>
-        <v>0</v>
-      </c>
-      <c r="Y14" s="10"/>
-      <c r="Z14" s="10"/>
-      <c r="AA14" s="34"/>
-      <c r="AB14" s="10"/>
-      <c r="AC14" s="10"/>
-      <c r="AD14" s="11"/>
-      <c r="AE14" s="12">
-        <f>SUM(AE12:AK12)</f>
-        <v>0</v>
-      </c>
-      <c r="AF14" s="10"/>
-      <c r="AG14" s="18"/>
-      <c r="AH14" s="10"/>
-      <c r="AI14" s="18"/>
-      <c r="AJ14" s="10"/>
-      <c r="AK14" s="11"/>
-      <c r="AL14" s="15">
-        <f>SUM(AL12:AR12)</f>
-        <v>0</v>
-      </c>
-      <c r="AM14" s="10"/>
-      <c r="AN14" s="18"/>
-      <c r="AO14" s="10"/>
-      <c r="AP14" s="18"/>
-      <c r="AQ14" s="10"/>
-      <c r="AR14" s="11"/>
-    </row>
-    <row r="15" spans="1:45" ht="6" customHeight="1" thickBot="1">
-      <c r="A15" s="49"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="35"/>
-      <c r="S15" s="35"/>
-      <c r="T15" s="35"/>
-      <c r="U15" s="35"/>
-      <c r="V15" s="35"/>
-      <c r="W15" s="35"/>
-      <c r="X15" s="35"/>
-      <c r="Y15" s="35"/>
-      <c r="Z15" s="35"/>
-      <c r="AA15" s="35"/>
-      <c r="AB15" s="35"/>
-      <c r="AC15" s="35"/>
-      <c r="AD15" s="35"/>
-      <c r="AE15" s="35"/>
-      <c r="AF15" s="35"/>
-      <c r="AG15" s="35"/>
-      <c r="AH15" s="35"/>
-      <c r="AI15" s="35"/>
-      <c r="AJ15" s="35"/>
-      <c r="AK15" s="36"/>
-      <c r="AL15" s="35"/>
-      <c r="AM15" s="35"/>
-      <c r="AN15" s="35"/>
-      <c r="AO15" s="35"/>
-      <c r="AP15" s="35"/>
-      <c r="AQ15" s="35"/>
-      <c r="AR15" s="41"/>
-    </row>
-    <row r="16" spans="1:45" ht="30" customHeight="1">
-      <c r="A16" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="20">
-        <v>9</v>
-      </c>
-      <c r="H16" s="20">
-        <v>6</v>
-      </c>
-      <c r="I16" s="21">
-        <v>10</v>
-      </c>
-      <c r="J16" s="19"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20"/>
-      <c r="T16" s="20"/>
-      <c r="U16" s="20"/>
-      <c r="V16" s="20"/>
-      <c r="W16" s="21"/>
-      <c r="X16" s="19"/>
-      <c r="Y16" s="20"/>
-      <c r="Z16" s="20"/>
-      <c r="AA16" s="21"/>
-      <c r="AB16" s="20"/>
-      <c r="AC16" s="20"/>
-      <c r="AD16" s="22"/>
-      <c r="AE16" s="19"/>
-      <c r="AF16" s="20"/>
-      <c r="AG16" s="20"/>
-      <c r="AH16" s="20"/>
-      <c r="AI16" s="20"/>
-      <c r="AJ16" s="20"/>
-      <c r="AK16" s="21"/>
-      <c r="AL16" s="19"/>
-      <c r="AM16" s="20"/>
-      <c r="AN16" s="20"/>
-      <c r="AO16" s="20"/>
-      <c r="AP16" s="25"/>
-      <c r="AQ16" s="25"/>
-      <c r="AR16" s="25"/>
-      <c r="AS16" s="37"/>
-    </row>
-    <row r="17" spans="1:44" ht="18" customHeight="1" thickBot="1">
-      <c r="A17" s="43"/>
-      <c r="B17" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="I17" s="24"/>
-      <c r="J17" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="K17" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="L17" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="M17" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="N17" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="O17" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="R17" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="S17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="T17" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="U17" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="V17" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="W17" s="24"/>
-      <c r="X17" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y17" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA17" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB17" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC17" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD17" s="24"/>
-      <c r="AE17" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF17" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG17" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH17" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="AI17" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="AJ17" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK17" s="24"/>
-      <c r="AL17" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="AM17" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN17" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="AO17" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="AP17" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="AQ17" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="AR17" s="24"/>
-    </row>
-    <row r="18" spans="1:44" ht="30" customHeight="1" thickBot="1">
-      <c r="A18" s="43"/>
-      <c r="B18" s="45">
-        <v>32</v>
-      </c>
-      <c r="C18" s="12">
-        <f>SUM(C16:I16)</f>
-        <v>25</v>
-      </c>
-      <c r="D18" s="10">
-        <v>641</v>
-      </c>
-      <c r="E18" s="18">
-        <v>0</v>
-      </c>
-      <c r="F18" s="10">
-        <v>54</v>
-      </c>
-      <c r="G18" s="18">
-        <v>25</v>
-      </c>
-      <c r="H18" s="10">
-        <v>556</v>
-      </c>
-      <c r="I18" s="11"/>
-      <c r="J18" s="15">
-        <f>SUM(J16:P16)</f>
-        <v>0</v>
-      </c>
-      <c r="K18" s="10"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="12">
-        <f>SUM(Q16:W16)</f>
-        <v>0</v>
-      </c>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="15">
-        <f>SUM(X16:AD16)</f>
-        <v>0</v>
-      </c>
-      <c r="Y18" s="10"/>
-      <c r="Z18" s="10"/>
-      <c r="AA18" s="34"/>
-      <c r="AB18" s="10"/>
-      <c r="AC18" s="10"/>
-      <c r="AD18" s="11"/>
-      <c r="AE18" s="12">
-        <f>SUM(AE16:AK16)</f>
-        <v>0</v>
-      </c>
-      <c r="AF18" s="10"/>
-      <c r="AG18" s="18"/>
-      <c r="AH18" s="10"/>
-      <c r="AI18" s="18"/>
-      <c r="AJ18" s="10"/>
-      <c r="AK18" s="11"/>
-      <c r="AL18" s="15">
-        <f>SUM(AL16:AR16)</f>
-        <v>0</v>
-      </c>
-      <c r="AM18" s="10"/>
-      <c r="AN18" s="18"/>
-      <c r="AO18" s="10"/>
-      <c r="AP18" s="18"/>
-      <c r="AQ18" s="10"/>
-      <c r="AR18" s="11"/>
-    </row>
-    <row r="19" spans="1:44" ht="6" customHeight="1" thickBot="1">
-      <c r="A19" s="44"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="35"/>
-      <c r="R19" s="35"/>
-      <c r="S19" s="35"/>
-      <c r="T19" s="35"/>
-      <c r="U19" s="35"/>
-      <c r="V19" s="35"/>
-      <c r="W19" s="35"/>
-      <c r="X19" s="35"/>
-      <c r="Y19" s="35"/>
-      <c r="Z19" s="35"/>
-      <c r="AA19" s="35"/>
-      <c r="AB19" s="35"/>
-      <c r="AC19" s="35"/>
-      <c r="AD19" s="35"/>
-      <c r="AE19" s="35"/>
-      <c r="AF19" s="35"/>
-      <c r="AG19" s="35"/>
-      <c r="AH19" s="35"/>
-      <c r="AI19" s="35"/>
-      <c r="AJ19" s="35"/>
-      <c r="AK19" s="36"/>
-      <c r="AL19" s="35"/>
-      <c r="AM19" s="35"/>
-      <c r="AN19" s="35"/>
-      <c r="AO19" s="35"/>
-      <c r="AP19" s="35"/>
-      <c r="AQ19" s="35"/>
-      <c r="AR19" s="41"/>
-    </row>
-    <row r="21" spans="1:44" ht="30.75">
-      <c r="C21" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:44">
-      <c r="G26" s="8"/>
+    <row r="25" spans="1:44">
+      <c r="G25" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C6:AR6"/>
+    <mergeCell ref="Q8:W8"/>
+    <mergeCell ref="AL8:AR8"/>
+    <mergeCell ref="AE8:AK8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:M7"/>
+    <mergeCell ref="N7:U7"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="X9:AD9"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="A9:B11"/>
+    <mergeCell ref="X8:AD8"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="A8:B10"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B8"/>
     <mergeCell ref="C4:M4"/>
     <mergeCell ref="N4:AA4"/>
     <mergeCell ref="AB4:AR4"/>
     <mergeCell ref="C5:M5"/>
     <mergeCell ref="N5:AA5"/>
     <mergeCell ref="AB5:AR5"/>
-    <mergeCell ref="N7:AR8"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C6:AR6"/>
-    <mergeCell ref="Q9:W9"/>
-    <mergeCell ref="AL9:AR9"/>
-    <mergeCell ref="AE9:AK9"/>
-    <mergeCell ref="C7:M8"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
